--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A49AA51-1CFA-430B-BCE2-B2787A36FF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42FEF0C-28D8-4A6C-929B-0B30CC5006EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,13 +174,43 @@
   </si>
   <si>
     <t>타이밍에 맞게 버튼 클릭하기</t>
+  </si>
+  <si>
+    <t>zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entrance</t>
+  </si>
+  <si>
+    <t>Entrance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +234,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,25 +281,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="스타일 1" xfId="1" xr:uid="{BF480F14-E593-4F92-92BA-4BE7C9C36DCD}"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -575,153 +658,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561451D7-3CDA-46B1-B39E-AB8D57902F0E}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -729,7 +839,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -737,7 +847,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -745,7 +855,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -753,7 +863,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -761,7 +871,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -769,7 +879,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -777,7 +887,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -785,7 +895,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -793,7 +903,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -801,7 +911,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -809,7 +919,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -817,7 +927,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -825,7 +935,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -833,7 +943,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -841,7 +951,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -849,7 +959,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -857,7 +967,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -865,7 +975,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -873,7 +983,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -881,6 +991,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Entrance"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Future"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{FDE2FA60-1E6F-4E6D-82CD-9A1ED68B274A}">
+      <formula1>$I$12:$I$16</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42FEF0C-28D8-4A6C-929B-0B30CC5006EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54461853-840A-4A20-9BE3-BC7C202C9DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
@@ -315,21 +315,11 @@
     <cellStyle name="제목 1" xfId="2" builtinId="16"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -661,7 +651,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54461853-840A-4A20-9BE3-BC7C202C9DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32729392-8AA6-4885-BA2C-8482491DD9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
   <sheets>
     <sheet name="stages" sheetId="1" r:id="rId1"/>
+    <sheet name="items" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,9 +182,6 @@
   </si>
   <si>
     <t>Entrance</t>
-  </si>
-  <si>
-    <t>Entrance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,6 +201,94 @@
   </si>
   <si>
     <t>Dream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 01번이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 02번이다</t>
+  </si>
+  <si>
+    <t>아이템 03번이다</t>
+  </si>
+  <si>
+    <t>아이템 04번이다</t>
+  </si>
+  <si>
+    <t>아이템 05번이다</t>
+  </si>
+  <si>
+    <t>아이템 06번이다</t>
+  </si>
+  <si>
+    <t>아이템 07번이다</t>
+  </si>
+  <si>
+    <t>아이템 08번이다</t>
+  </si>
+  <si>
+    <t>아이템 09번이다</t>
+  </si>
+  <si>
+    <t>rewardItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/test1.jpg</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>로봇토피아A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇토피아B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>퓨쳐존A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표쳐존B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어드밴처A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어드밴처B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림존A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림존B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +401,41 @@
     <cellStyle name="제목 1" xfId="2" builtinId="16"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -650,16 +770,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561451D7-3CDA-46B1-B39E-AB8D57902F0E}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -677,6 +797,9 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -686,7 +809,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -697,7 +823,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -707,6 +836,12 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -715,6 +850,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -723,6 +861,9 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -731,6 +872,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -739,6 +883,9 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -747,6 +894,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -755,6 +905,9 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -763,6 +916,9 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -771,8 +927,11 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -782,8 +941,11 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -793,8 +955,11 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -804,8 +969,11 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -815,180 +983,241 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
       <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Future"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Entrance"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Future"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -998,4 +1227,181 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205C7ED-7327-410B-8ADB-2249897AEBDE}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3663DD20-957E-4031-B214-3019F7556646}">
+          <x14:formula1>
+            <xm:f>stages!$I$12:$I$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32729392-8AA6-4885-BA2C-8482491DD9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BFB266-93BA-492B-9B5E-38979A465C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,26 +49,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호풍선 터트리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>올바른 위치에 물건올리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알맞은 타이밍에 못박기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>떨어지는 스틱잡기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠르게 터치 하여 부화시키기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좌우 버튼을 연타하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검은 공간에서 라이트로 물건찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>잔해 치우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알까기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>야바위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,9 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통나무 돌리기</t>
-  </si>
-  <si>
     <t>올바른 포즈 취하기</t>
   </si>
   <si>
@@ -181,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Entrance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Future</t>
   </si>
   <si>
@@ -289,6 +258,67 @@
   </si>
   <si>
     <t>Boss아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 제작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 수리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이밍에 맞게 물건잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치하여 에너지 충전하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini_0_CreateRobot</t>
+  </si>
+  <si>
+    <t>Mini_1_Planet</t>
+  </si>
+  <si>
+    <t>Mini_2_RepairRobot</t>
+  </si>
+  <si>
+    <t>Mini_3_GrabTool</t>
+  </si>
+  <si>
+    <t>Mini_4_ChargeEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini_5_YounTa</t>
+  </si>
+  <si>
+    <t>Mini_7_ConnectLine</t>
+  </si>
+  <si>
+    <t>Mini_10_CardFlip</t>
+  </si>
+  <si>
+    <t>Mini_23_Rolling</t>
+  </si>
+  <si>
+    <t>Mini_25_RememberColor</t>
+  </si>
+  <si>
+    <t>Boss_SpaceShip</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아가는 우주선에서 버티기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,24 +431,7 @@
     <cellStyle name="제목 1" xfId="2" builtinId="16"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color auto="1"/>
@@ -433,23 +446,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -770,15 +766,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561451D7-3CDA-46B1-B39E-AB8D57902F0E}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
@@ -792,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -806,10 +802,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -820,10 +819,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -834,10 +836,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -848,7 +853,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -859,7 +867,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -870,7 +881,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -881,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -892,7 +906,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -903,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -914,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -925,13 +942,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -939,13 +959,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -953,27 +973,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -981,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -995,7 +1012,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1005,9 +1022,6 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
       <c r="E18">
         <v>6</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -1028,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1039,7 +1053,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1050,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1061,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1072,7 +1092,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1083,7 +1103,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1094,7 +1117,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1105,7 +1128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1116,7 +1142,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -1127,7 +1153,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -1138,7 +1164,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -1149,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -1160,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1171,7 +1197,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1182,7 +1208,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1193,7 +1219,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1204,7 +1230,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -1213,10 +1239,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Future"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Entrance"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1253,13 +1279,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1267,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1284,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1298,13 +1324,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1312,13 +1338,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1326,13 +1352,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1340,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1354,13 +1380,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1368,13 +1394,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1382,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BFB266-93BA-492B-9B5E-38979A465C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A7A59-0F72-4E57-9CCE-650FBA07AE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A7A59-0F72-4E57-9CCE-650FBA07AE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9236F7-AD9B-42F2-85E1-3333F0C945E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
   <sheets>
     <sheet name="stages" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,30 @@
   <si>
     <t>돌아가는 우주선에서 버티기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/test2.jpg</t>
+  </si>
+  <si>
+    <t>Assets/Image/test3.jpg</t>
+  </si>
+  <si>
+    <t>Assets/Image/test4.jpg</t>
+  </si>
+  <si>
+    <t>Assets/Image/test5.jpg</t>
+  </si>
+  <si>
+    <t>Assets/Image/test6.jpg</t>
+  </si>
+  <si>
+    <t>Assets/Image/test7.jpg</t>
+  </si>
+  <si>
+    <t>Assets/Image/test8.jpg</t>
+  </si>
+  <si>
+    <t>Assets/Image/test9.jpg</t>
   </si>
 </sst>
 </file>
@@ -766,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561451D7-3CDA-46B1-B39E-AB8D57902F0E}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1259,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205C7ED-7327-410B-8ADB-2249897AEBDE}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1318,6 +1342,9 @@
       <c r="D3" t="s">
         <v>39</v>
       </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1332,6 +1359,9 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1346,6 +1376,9 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1360,6 +1393,9 @@
       <c r="D6" t="s">
         <v>42</v>
       </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1374,6 +1410,9 @@
       <c r="D7" t="s">
         <v>43</v>
       </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1388,6 +1427,9 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1402,6 +1444,9 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1410,8 +1455,14 @@
       <c r="B10" t="s">
         <v>61</v>
       </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
       <c r="D10" t="s">
         <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9236F7-AD9B-42F2-85E1-3333F0C945E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930D6C57-DC84-417F-89AF-D857C82D6A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
+    <workbookView xWindow="70305" yWindow="5775" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
   <sheets>
     <sheet name="stages" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,54 +213,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Image/test1.jpg</t>
-  </si>
-  <si>
     <t>Robot</t>
   </si>
   <si>
-    <t>로봇토피아A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로봇토피아B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Adventure</t>
   </si>
   <si>
-    <t>Dream</t>
-  </si>
-  <si>
-    <t>퓨쳐존A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표쳐존B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어드밴처A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어드밴처B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림존A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림존B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇 제작하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,28 +280,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Image/test2.jpg</t>
-  </si>
-  <si>
-    <t>Assets/Image/test3.jpg</t>
-  </si>
-  <si>
-    <t>Assets/Image/test4.jpg</t>
-  </si>
-  <si>
-    <t>Assets/Image/test5.jpg</t>
-  </si>
-  <si>
-    <t>Assets/Image/test6.jpg</t>
-  </si>
-  <si>
-    <t>Assets/Image/test7.jpg</t>
-  </si>
-  <si>
-    <t>Assets/Image/test8.jpg</t>
-  </si>
-  <si>
-    <t>Assets/Image/test9.jpg</t>
+    <t>아이템 10번이다</t>
+  </si>
+  <si>
+    <t>아이템 11번이다</t>
+  </si>
+  <si>
+    <t>아이템 12번이다</t>
+  </si>
+  <si>
+    <t>아이템 13번이다</t>
+  </si>
+  <si>
+    <t>아이템 14번이다</t>
+  </si>
+  <si>
+    <t>아이템 15번이다</t>
+  </si>
+  <si>
+    <t>아이템 16번이다</t>
+  </si>
+  <si>
+    <t>아이템 17번이다</t>
+  </si>
+  <si>
+    <t>아이템 18번이다</t>
+  </si>
+  <si>
+    <t>아이템 19번이다</t>
+  </si>
+  <si>
+    <t>아이템 20번이다</t>
+  </si>
+  <si>
+    <t>아이템 21번이다</t>
+  </si>
+  <si>
+    <t>아이템 22번이다</t>
+  </si>
+  <si>
+    <t>아이템 23번이다</t>
+  </si>
+  <si>
+    <t>아이템 24번이다</t>
+  </si>
+  <si>
+    <t>아이템 25번이다</t>
+  </si>
+  <si>
+    <t>아이템 26번이다</t>
+  </si>
+  <si>
+    <t>아이템 27번이다</t>
+  </si>
+  <si>
+    <t>아이템 28번이다</t>
+  </si>
+  <si>
+    <t>아이템 29번이다</t>
+  </si>
+  <si>
+    <t>아이템 30번이다</t>
+  </si>
+  <si>
+    <t>아이템 31번이다</t>
+  </si>
+  <si>
+    <t>아이템 32번이다</t>
+  </si>
+  <si>
+    <t>아이템 33번이다</t>
+  </si>
+  <si>
+    <t>아이템 34번이다</t>
+  </si>
+  <si>
+    <t>아이템 35번이다</t>
+  </si>
+  <si>
+    <t>우주선 부품 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주선 부품 B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주선 부품 C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주선 부품 D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주선 부품 E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주선 부품 F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주선 부품 G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 26번이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 27번이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 36번이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 31번이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 32번이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needPartID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.8.9.10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,15,16,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,20,21,22,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,26,27,28,29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32,33,34,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,39,40,41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/UX/MiniGame/UX_MiniGmae_09_MakeRobot/UX_mini_09_Robot.png</t>
+  </si>
+  <si>
+    <t>Assets/Image/UX/MiniGame/UX_MiniGmae_09_MakeRobot/RoboParts_0.png</t>
+  </si>
+  <si>
+    <t>Assets/Image/UX/MiniGame/UX_MiniGmae_09_MakeRobot/UX_mini_09_Robot.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,11 +544,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,13 +931,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -849,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -860,13 +965,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -877,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -891,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -908,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -933,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -969,13 +1074,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1080,10 +1185,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1127,10 +1232,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1155,7 +1260,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1281,21 +1386,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205C7ED-7327-410B-8ADB-2249897AEBDE}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,158 +1417,725 @@
       <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
         <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930D6C57-DC84-417F-89AF-D857C82D6A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E984E-D263-4454-95D0-6EC5D60D24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70305" yWindow="5775" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
   <sheets>
     <sheet name="stages" sheetId="1" r:id="rId1"/>

--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E984E-D263-4454-95D0-6EC5D60D24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9162B7E-E96F-470B-A830-FB3FA5BF6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
   <sheets>
     <sheet name="stages" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,11 +441,17 @@
     <t>Assets/Image/UX/MiniGame/UX_MiniGmae_09_MakeRobot/UX_mini_09_Robot.png</t>
   </si>
   <si>
-    <t>Assets/Image/UX/MiniGame/UX_MiniGmae_09_MakeRobot/RoboParts_0.png</t>
-  </si>
-  <si>
     <t>Assets/Image/UX/MiniGame/UX_MiniGmae_09_MakeRobot/UX_mini_09_Robot.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/UX/UX_TestPart.png</t>
+  </si>
+  <si>
+    <t>Assets/Image/UX/UX_TestParts01.png</t>
+  </si>
+  <si>
+    <t>Assets/Image/UX/UX_TestParts02.png</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1395,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>108</v>
@@ -1455,7 +1461,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1472,7 +1478,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1489,7 +1495,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1506,7 +1512,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,7 +1529,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1557,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1574,7 +1580,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1591,7 +1597,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1608,7 +1614,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1625,7 +1631,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1659,7 +1665,7 @@
         <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1676,7 +1682,7 @@
         <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1693,7 +1699,7 @@
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1710,7 +1716,7 @@
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1727,7 +1733,7 @@
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1761,7 +1767,7 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1778,7 +1784,7 @@
         <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1795,7 +1801,7 @@
         <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,7 +1818,7 @@
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1829,7 +1835,7 @@
         <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1863,7 +1869,7 @@
         <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1880,7 +1886,7 @@
         <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1897,7 +1903,7 @@
         <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1914,7 +1920,7 @@
         <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1931,7 +1937,7 @@
         <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1965,7 +1971,7 @@
         <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1982,7 +1988,7 @@
         <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1999,7 +2005,7 @@
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2016,7 +2022,7 @@
         <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2033,7 +2039,7 @@
         <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2067,7 +2073,7 @@
         <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2084,7 +2090,7 @@
         <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2101,7 +2107,7 @@
         <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2118,7 +2124,7 @@
         <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2135,7 +2141,7 @@
         <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/GameData.xlsx
+++ b/Assets/Excels/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9162B7E-E96F-470B-A830-FB3FA5BF6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A544AD-8486-4344-92CE-28FC12E2B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
   <sheets>
     <sheet name="stages" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="126">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,9 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>올바른 포즈 취하기</t>
-  </si>
-  <si>
     <t>색 맞추는 기억력게임</t>
   </si>
   <si>
@@ -452,6 +449,28 @@
   </si>
   <si>
     <t>Assets/Image/UX/UX_TestParts02.png</t>
+  </si>
+  <si>
+    <t>Mini_20_ClearTools</t>
+  </si>
+  <si>
+    <t>Mini_27_DrawLine</t>
+  </si>
+  <si>
+    <t>Mini_24_Magnet</t>
+  </si>
+  <si>
+    <t>자석으로 물건빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini_18_CrushMeteor</t>
+  </si>
+  <si>
+    <t>Mini_6_Set_Block</t>
+  </si>
+  <si>
+    <t>Mini_17_Swaped_Cup</t>
   </si>
 </sst>
 </file>
@@ -901,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561451D7-3CDA-46B1-B39E-AB8D57902F0E}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,13 +942,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -937,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -957,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -971,13 +990,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -988,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1002,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1019,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1032,6 +1051,9 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
       <c r="E8">
         <v>6</v>
       </c>
@@ -1044,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1080,13 +1102,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1100,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1114,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1125,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1139,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1168,6 +1190,9 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
       <c r="E19">
         <v>7</v>
       </c>
@@ -1179,6 +1204,9 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
       <c r="E20">
         <v>8</v>
       </c>
@@ -1191,10 +1219,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1207,6 +1235,9 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
       <c r="E22">
         <v>0</v>
       </c>
@@ -1238,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1252,7 +1283,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1263,10 +1297,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1277,7 +1311,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -1288,7 +1322,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -1299,7 +1336,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -1310,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -1321,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1332,7 +1369,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1343,7 +1380,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1354,7 +1391,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1365,7 +1402,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -1394,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205C7ED-7327-410B-8ADB-2249897AEBDE}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1415,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1432,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,16 +1489,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1469,16 +1506,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,16 +1523,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1503,16 +1540,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1520,16 +1557,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1537,16 +1574,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1554,16 +1591,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1571,16 +1608,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1588,16 +1625,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1605,16 +1642,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1622,16 +1659,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,16 +1676,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1656,16 +1693,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,16 +1710,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1690,16 +1727,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1707,16 +1744,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1724,16 +1761,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1741,16 +1778,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1758,16 +1795,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1775,16 +1812,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1792,16 +1829,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1809,16 +1846,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,16 +1863,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,16 +1880,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1860,16 +1897,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1877,16 +1914,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1894,16 +1931,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1911,16 +1948,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
       </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1928,16 +1965,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1945,16 +1982,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1962,16 +1999,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1979,16 +2016,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1996,16 +2033,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
         <v>87</v>
       </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
-      </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2013,16 +2050,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,16 +2067,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
         <v>89</v>
       </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2047,16 +2084,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2064,16 +2101,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2081,16 +2118,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2098,16 +2135,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
         <v>92</v>
       </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2115,16 +2152,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
         <v>93</v>
       </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,16 +2169,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
